--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymystock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB16F8-74C2-445D-9962-B4629006D0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4E247-C4E4-4585-8869-292B2BB822DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{099E8721-3940-4E09-8A9F-91FFD4F79894}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>삼성전자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>AT&amp;T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이프로젠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E78387-C677-415E-9AED-9BD3021ED307}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,6 +433,11 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymystock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4E247-C4E4-4585-8869-292B2BB822DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFDE3C-4FAE-4DC9-ACB1-F6B5DC1078BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{099E8721-3940-4E09-8A9F-91FFD4F79894}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>삼성전자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +39,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AT&amp;T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에이프로젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴림로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스페릭스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLB테라퓨틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에토니모리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E78387-C677-415E-9AED-9BD3021ED307}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -433,12 +449,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymystock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFDE3C-4FAE-4DC9-ACB1-F6B5DC1078BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA85B8-AF71-4053-8C47-F5DEB7D45FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{099E8721-3940-4E09-8A9F-91FFD4F79894}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에토니모리</t>
+    <t>토니모리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
